--- a/FieldData/2015/xlsx_raw/10-004 Field Data.xlsx
+++ b/FieldData/2015/xlsx_raw/10-004 Field Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Dropbox/FREMP_Dan-Megan/Field Data/Finished/10-004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_587B01C1AB69A004E28A217ABBA19EA92834D2EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB52CF82-74A0-4256-8806-1043BA9E02A4}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="28600" windowHeight="21020" activeTab="2"/>
+    <workbookView xWindow="3930" yWindow="990" windowWidth="20295" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="R-Understory" sheetId="3" r:id="rId3"/>
     <sheet name="R-Snags" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1480,6 +1481,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1531,10 +1536,6 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1694,6 +1695,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2940,51 +2944,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV96"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D67" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="48" customWidth="1"/>
-    <col min="4" max="7" width="3.75" style="48" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="48" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="48" customWidth="1"/>
-    <col min="11" max="12" width="4.625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="48" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="5.09765625" style="48" customWidth="1"/>
+    <col min="4" max="7" width="3.69921875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" style="48" customWidth="1"/>
+    <col min="11" max="12" width="4.59765625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="48" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="48" customWidth="1"/>
-    <col min="15" max="15" width="28.125" style="48" customWidth="1"/>
-    <col min="16" max="256" width="8.625" style="48" customWidth="1"/>
-    <col min="257" max="16384" width="8.625" style="49"/>
+    <col min="15" max="15" width="28.09765625" style="48" customWidth="1"/>
+    <col min="16" max="256" width="8.59765625" style="48" customWidth="1"/>
+    <col min="257" max="16384" width="8.59765625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
+    <row r="1" spans="1:256" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
@@ -3227,7 +3231,7 @@
       <c r="IU1" s="26"/>
       <c r="IV1" s="26"/>
     </row>
-    <row r="2" spans="1:256" s="27" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" s="27" customFormat="1" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -3237,12 +3241,12 @@
       <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="44"/>
       <c r="I2" s="43" t="s">
         <v>5</v>
@@ -3775,7 +3779,7 @@
       <c r="IU3" s="26"/>
       <c r="IV3" s="26"/>
     </row>
-    <row r="4" spans="1:256" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" s="27" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
@@ -4050,7 +4054,7 @@
       <c r="IU4" s="26"/>
       <c r="IV4" s="26"/>
     </row>
-    <row r="5" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4329,7 @@
       <c r="IU5" s="26"/>
       <c r="IV5" s="26"/>
     </row>
-    <row r="6" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
@@ -4600,7 +4604,7 @@
       <c r="IU6" s="26"/>
       <c r="IV6" s="26"/>
     </row>
-    <row r="7" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>48</v>
       </c>
@@ -4879,7 +4883,7 @@
       <c r="IU7" s="26"/>
       <c r="IV7" s="26"/>
     </row>
-    <row r="8" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>48</v>
       </c>
@@ -5154,7 +5158,7 @@
       <c r="IU8" s="26"/>
       <c r="IV8" s="26"/>
     </row>
-    <row r="9" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>48</v>
       </c>
@@ -5429,7 +5433,7 @@
       <c r="IU9" s="26"/>
       <c r="IV9" s="26"/>
     </row>
-    <row r="10" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>48</v>
       </c>
@@ -5700,7 +5704,7 @@
       <c r="IU10" s="26"/>
       <c r="IV10" s="26"/>
     </row>
-    <row r="11" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>48</v>
       </c>
@@ -5975,7 +5979,7 @@
       <c r="IU11" s="26"/>
       <c r="IV11" s="26"/>
     </row>
-    <row r="12" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
@@ -6250,7 +6254,7 @@
       <c r="IU12" s="26"/>
       <c r="IV12" s="26"/>
     </row>
-    <row r="13" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>48</v>
       </c>
@@ -6525,7 +6529,7 @@
       <c r="IU13" s="26"/>
       <c r="IV13" s="26"/>
     </row>
-    <row r="14" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>48</v>
       </c>
@@ -6796,7 +6800,7 @@
       <c r="IU14" s="26"/>
       <c r="IV14" s="26"/>
     </row>
-    <row r="15" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>48</v>
       </c>
@@ -7073,7 +7077,7 @@
       <c r="IU15" s="26"/>
       <c r="IV15" s="26"/>
     </row>
-    <row r="16" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>48</v>
       </c>
@@ -7352,7 +7356,7 @@
       <c r="IU16" s="26"/>
       <c r="IV16" s="26"/>
     </row>
-    <row r="17" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>48</v>
       </c>
@@ -7627,7 +7631,7 @@
       <c r="IU17" s="26"/>
       <c r="IV17" s="26"/>
     </row>
-    <row r="18" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>48</v>
       </c>
@@ -7902,7 +7906,7 @@
       <c r="IU18" s="26"/>
       <c r="IV18" s="26"/>
     </row>
-    <row r="19" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
@@ -8173,7 +8177,7 @@
       <c r="IU19" s="26"/>
       <c r="IV19" s="26"/>
     </row>
-    <row r="20" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
@@ -8448,7 +8452,7 @@
       <c r="IU20" s="26"/>
       <c r="IV20" s="26"/>
     </row>
-    <row r="21" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>48</v>
       </c>
@@ -8725,7 +8729,7 @@
       <c r="IU21" s="26"/>
       <c r="IV21" s="26"/>
     </row>
-    <row r="22" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
@@ -9000,7 +9004,7 @@
       <c r="IU22" s="26"/>
       <c r="IV22" s="26"/>
     </row>
-    <row r="23" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>48</v>
       </c>
@@ -9271,7 +9275,7 @@
       <c r="IU23" s="26"/>
       <c r="IV23" s="26"/>
     </row>
-    <row r="24" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>48</v>
       </c>
@@ -9546,7 +9550,7 @@
       <c r="IU24" s="26"/>
       <c r="IV24" s="26"/>
     </row>
-    <row r="25" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
@@ -9821,7 +9825,7 @@
       <c r="IU25" s="26"/>
       <c r="IV25" s="26"/>
     </row>
-    <row r="26" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -10096,7 +10100,7 @@
       <c r="IU26" s="26"/>
       <c r="IV26" s="26"/>
     </row>
-    <row r="27" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>48</v>
       </c>
@@ -10371,7 +10375,7 @@
       <c r="IU27" s="26"/>
       <c r="IV27" s="26"/>
     </row>
-    <row r="28" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>48</v>
       </c>
@@ -10646,7 +10650,7 @@
       <c r="IU28" s="26"/>
       <c r="IV28" s="26"/>
     </row>
-    <row r="29" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>48</v>
       </c>
@@ -10921,7 +10925,7 @@
       <c r="IU29" s="26"/>
       <c r="IV29" s="26"/>
     </row>
-    <row r="30" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>48</v>
       </c>
@@ -11196,7 +11200,7 @@
       <c r="IU30" s="26"/>
       <c r="IV30" s="26"/>
     </row>
-    <row r="31" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>48</v>
       </c>
@@ -11473,7 +11477,7 @@
       <c r="IU31" s="26"/>
       <c r="IV31" s="26"/>
     </row>
-    <row r="32" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>48</v>
       </c>
@@ -11750,7 +11754,7 @@
       <c r="IU32" s="26"/>
       <c r="IV32" s="26"/>
     </row>
-    <row r="33" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>48</v>
       </c>
@@ -12025,7 +12029,7 @@
       <c r="IU33" s="26"/>
       <c r="IV33" s="26"/>
     </row>
-    <row r="34" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>48</v>
       </c>
@@ -12300,7 +12304,7 @@
       <c r="IU34" s="26"/>
       <c r="IV34" s="26"/>
     </row>
-    <row r="35" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>48</v>
       </c>
@@ -12572,7 +12576,7 @@
       <c r="IU35" s="26"/>
       <c r="IV35" s="26"/>
     </row>
-    <row r="36" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>48</v>
       </c>
@@ -12847,7 +12851,7 @@
       <c r="IU36" s="26"/>
       <c r="IV36" s="26"/>
     </row>
-    <row r="37" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>48</v>
       </c>
@@ -13122,7 +13126,7 @@
       <c r="IU37" s="26"/>
       <c r="IV37" s="26"/>
     </row>
-    <row r="38" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>48</v>
       </c>
@@ -13397,7 +13401,7 @@
       <c r="IU38" s="26"/>
       <c r="IV38" s="26"/>
     </row>
-    <row r="39" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>48</v>
       </c>
@@ -13672,7 +13676,7 @@
       <c r="IU39" s="26"/>
       <c r="IV39" s="26"/>
     </row>
-    <row r="40" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>48</v>
       </c>
@@ -13947,7 +13951,7 @@
       <c r="IU40" s="26"/>
       <c r="IV40" s="26"/>
     </row>
-    <row r="41" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>48</v>
       </c>
@@ -14222,7 +14226,7 @@
       <c r="IU41" s="26"/>
       <c r="IV41" s="26"/>
     </row>
-    <row r="42" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>48</v>
       </c>
@@ -14497,7 +14501,7 @@
       <c r="IU42" s="26"/>
       <c r="IV42" s="26"/>
     </row>
-    <row r="43" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>48</v>
       </c>
@@ -14772,7 +14776,7 @@
       <c r="IU43" s="26"/>
       <c r="IV43" s="26"/>
     </row>
-    <row r="44" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>48</v>
       </c>
@@ -15043,7 +15047,7 @@
       <c r="IU44" s="26"/>
       <c r="IV44" s="26"/>
     </row>
-    <row r="45" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>48</v>
       </c>
@@ -15318,7 +15322,7 @@
       <c r="IU45" s="26"/>
       <c r="IV45" s="26"/>
     </row>
-    <row r="46" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>48</v>
       </c>
@@ -15593,7 +15597,7 @@
       <c r="IU46" s="26"/>
       <c r="IV46" s="26"/>
     </row>
-    <row r="47" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>48</v>
       </c>
@@ -15868,7 +15872,7 @@
       <c r="IU47" s="26"/>
       <c r="IV47" s="26"/>
     </row>
-    <row r="48" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
         <v>48</v>
       </c>
@@ -16143,7 +16147,7 @@
       <c r="IU48" s="26"/>
       <c r="IV48" s="26"/>
     </row>
-    <row r="49" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
         <v>48</v>
       </c>
@@ -16418,7 +16422,7 @@
       <c r="IU49" s="26"/>
       <c r="IV49" s="26"/>
     </row>
-    <row r="50" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
         <v>48</v>
       </c>
@@ -16693,7 +16697,7 @@
       <c r="IU50" s="26"/>
       <c r="IV50" s="26"/>
     </row>
-    <row r="51" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>48</v>
       </c>
@@ -16968,7 +16972,7 @@
       <c r="IU51" s="26"/>
       <c r="IV51" s="26"/>
     </row>
-    <row r="52" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>48</v>
       </c>
@@ -17243,7 +17247,7 @@
       <c r="IU52" s="26"/>
       <c r="IV52" s="26"/>
     </row>
-    <row r="53" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>48</v>
       </c>
@@ -17518,7 +17522,7 @@
       <c r="IU53" s="26"/>
       <c r="IV53" s="26"/>
     </row>
-    <row r="54" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>48</v>
       </c>
@@ -17793,7 +17797,7 @@
       <c r="IU54" s="26"/>
       <c r="IV54" s="26"/>
     </row>
-    <row r="55" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>48</v>
       </c>
@@ -18070,7 +18074,7 @@
       <c r="IU55" s="26"/>
       <c r="IV55" s="26"/>
     </row>
-    <row r="56" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>48</v>
       </c>
@@ -18345,7 +18349,7 @@
       <c r="IU56" s="26"/>
       <c r="IV56" s="26"/>
     </row>
-    <row r="57" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>48</v>
       </c>
@@ -18620,7 +18624,7 @@
       <c r="IU57" s="26"/>
       <c r="IV57" s="26"/>
     </row>
-    <row r="58" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
         <v>48</v>
       </c>
@@ -18895,7 +18899,7 @@
       <c r="IU58" s="26"/>
       <c r="IV58" s="26"/>
     </row>
-    <row r="59" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>48</v>
       </c>
@@ -19170,7 +19174,7 @@
       <c r="IU59" s="26"/>
       <c r="IV59" s="26"/>
     </row>
-    <row r="60" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>48</v>
       </c>
@@ -19445,7 +19449,7 @@
       <c r="IU60" s="26"/>
       <c r="IV60" s="26"/>
     </row>
-    <row r="61" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>48</v>
       </c>
@@ -19720,7 +19724,7 @@
       <c r="IU61" s="26"/>
       <c r="IV61" s="26"/>
     </row>
-    <row r="62" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>48</v>
       </c>
@@ -19995,7 +19999,7 @@
       <c r="IU62" s="26"/>
       <c r="IV62" s="26"/>
     </row>
-    <row r="63" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>48</v>
       </c>
@@ -20270,7 +20274,7 @@
       <c r="IU63" s="26"/>
       <c r="IV63" s="26"/>
     </row>
-    <row r="64" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>48</v>
       </c>
@@ -20545,7 +20549,7 @@
       <c r="IU64" s="26"/>
       <c r="IV64" s="26"/>
     </row>
-    <row r="65" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>48</v>
       </c>
@@ -21372,7 +21376,7 @@
       <c r="IU67" s="26"/>
       <c r="IV67" s="26"/>
     </row>
-    <row r="68" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>48</v>
       </c>
@@ -23024,7 +23028,7 @@
       <c r="IU73" s="26"/>
       <c r="IV73" s="26"/>
     </row>
-    <row r="74" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>48</v>
       </c>
@@ -23299,7 +23303,7 @@
       <c r="IU74" s="26"/>
       <c r="IV74" s="26"/>
     </row>
-    <row r="75" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>48</v>
       </c>
@@ -23847,7 +23851,7 @@
       <c r="IU76" s="26"/>
       <c r="IV76" s="26"/>
     </row>
-    <row r="77" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>48</v>
       </c>
@@ -24397,7 +24401,7 @@
       <c r="IU78" s="26"/>
       <c r="IV78" s="26"/>
     </row>
-    <row r="79" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>48</v>
       </c>
@@ -24672,7 +24676,7 @@
       <c r="IU79" s="26"/>
       <c r="IV79" s="26"/>
     </row>
-    <row r="80" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>48</v>
       </c>
@@ -24947,7 +24951,7 @@
       <c r="IU80" s="26"/>
       <c r="IV80" s="26"/>
     </row>
-    <row r="81" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>48</v>
       </c>
@@ -25222,7 +25226,7 @@
       <c r="IU81" s="26"/>
       <c r="IV81" s="26"/>
     </row>
-    <row r="82" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>48</v>
       </c>
@@ -25497,7 +25501,7 @@
       <c r="IU82" s="26"/>
       <c r="IV82" s="26"/>
     </row>
-    <row r="83" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>48</v>
       </c>
@@ -26047,7 +26051,7 @@
       <c r="IU84" s="26"/>
       <c r="IV84" s="26"/>
     </row>
-    <row r="85" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>48</v>
       </c>
@@ -26322,7 +26326,7 @@
       <c r="IU85" s="26"/>
       <c r="IV85" s="26"/>
     </row>
-    <row r="86" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>48</v>
       </c>
@@ -27147,7 +27151,7 @@
       <c r="IU88" s="26"/>
       <c r="IV88" s="26"/>
     </row>
-    <row r="89" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>48</v>
       </c>
@@ -27697,7 +27701,7 @@
       <c r="IU90" s="26"/>
       <c r="IV90" s="26"/>
     </row>
-    <row r="91" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>48</v>
       </c>
@@ -27968,7 +27972,7 @@
       <c r="IU91" s="26"/>
       <c r="IV91" s="26"/>
     </row>
-    <row r="92" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>48</v>
       </c>
@@ -28243,7 +28247,7 @@
       <c r="IU92" s="26"/>
       <c r="IV92" s="26"/>
     </row>
-    <row r="93" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>48</v>
       </c>
@@ -28518,7 +28522,7 @@
       <c r="IU93" s="26"/>
       <c r="IV93" s="26"/>
     </row>
-    <row r="94" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>48</v>
       </c>
@@ -29068,7 +29072,7 @@
       <c r="IU95" s="26"/>
       <c r="IV95" s="26"/>
     </row>
-    <row r="96" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:256" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>48</v>
       </c>
@@ -29353,7 +29357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -29363,62 +29367,62 @@
       <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.8984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="23" width="4.75" style="4" customWidth="1"/>
-    <col min="24" max="24" width="4.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="23" width="4.69921875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="4.69921875" style="19" customWidth="1"/>
     <col min="25" max="25" width="32.5" style="4" customWidth="1"/>
-    <col min="26" max="257" width="6.875" style="4" customWidth="1"/>
+    <col min="26" max="257" width="6.8984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
       <c r="B1" s="51"/>
       <c r="C1" s="52"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="67"/>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114" t="s">
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116" t="s">
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="107" t="s">
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="85"/>
       <c r="Y1" s="54"/>
     </row>
-    <row r="2" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>25</v>
       </c>
@@ -29495,7 +29499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>48</v>
       </c>
@@ -29574,7 +29578,7 @@
       </c>
       <c r="Y3" s="62"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>48</v>
       </c>
@@ -29643,7 +29647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>48</v>
       </c>
@@ -29714,7 +29718,7 @@
       </c>
       <c r="Y5" s="62"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>48</v>
       </c>
@@ -29777,7 +29781,7 @@
       </c>
       <c r="Y6" s="62"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>48</v>
       </c>
@@ -29838,16 +29842,16 @@
         <f t="shared" si="5"/>
         <v>141.4</v>
       </c>
-      <c r="Y7" s="121">
+      <c r="Y7" s="104">
         <f>SUM(X3:X7)</f>
         <v>3252.2</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X8" s="120"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T10" s="120"/>
+      <c r="T10" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29867,33 +29871,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="74" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="74" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="74" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="74" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="74" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="74" customWidth="1"/>
-    <col min="9" max="9" width="3.75" style="74" customWidth="1"/>
-    <col min="10" max="10" width="31.875" style="74" customWidth="1"/>
-    <col min="11" max="256" width="6.625" style="74" customWidth="1"/>
-    <col min="257" max="16384" width="6.625" style="75"/>
+    <col min="5" max="5" width="18.09765625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" style="74" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="3.69921875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="31.8984375" style="74" customWidth="1"/>
+    <col min="11" max="256" width="6.59765625" style="74" customWidth="1"/>
+    <col min="257" max="16384" width="6.59765625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
@@ -29925,7 +29929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>48</v>
       </c>
@@ -29955,7 +29959,7 @@
         <v>9.8939929328621901</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -29985,7 +29989,7 @@
         <v>0.35335689045936397</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -30015,7 +30019,7 @@
         <v>6.7137809187279158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -30101,37 +30105,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV173"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.625" style="19" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" style="19" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="19" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="38.625" style="19" customWidth="1"/>
-    <col min="9" max="256" width="6.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="19" customWidth="1"/>
+    <col min="6" max="7" width="7.3984375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="38.59765625" style="19" customWidth="1"/>
+    <col min="9" max="256" width="6.59765625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="118" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="119"/>
+      <c r="G1" s="121"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -30157,7 +30161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="24"/>
@@ -30173,7 +30177,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="25"/>
@@ -30189,7 +30193,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="25"/>
@@ -30205,7 +30209,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="25"/>
@@ -30221,7 +30225,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="25"/>
@@ -30237,7 +30241,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="25"/>
@@ -30253,7 +30257,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="25"/>
@@ -30269,7 +30273,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="25"/>
@@ -30285,7 +30289,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="25"/>
@@ -30301,7 +30305,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="25"/>
@@ -30317,7 +30321,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="25"/>
@@ -30333,7 +30337,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="25"/>
@@ -30349,7 +30353,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="25"/>
@@ -30365,7 +30369,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="25"/>
@@ -30381,7 +30385,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="25"/>
@@ -30397,7 +30401,7 @@
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="25"/>
@@ -30413,7 +30417,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="25"/>
@@ -30429,7 +30433,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="25"/>
@@ -30445,7 +30449,7 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="25"/>
@@ -30461,7 +30465,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="25"/>
@@ -30477,7 +30481,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="25"/>
@@ -30493,7 +30497,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="25"/>
@@ -30509,7 +30513,7 @@
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="25"/>
@@ -30525,7 +30529,7 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="25"/>
@@ -30541,7 +30545,7 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="25"/>
@@ -30557,7 +30561,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="25"/>
@@ -30573,7 +30577,7 @@
       </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="25"/>
@@ -30589,7 +30593,7 @@
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="25"/>
@@ -30605,7 +30609,7 @@
       </c>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="25"/>
@@ -30621,7 +30625,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="25"/>
@@ -30637,7 +30641,7 @@
       </c>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="25"/>
@@ -30653,7 +30657,7 @@
       </c>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="25"/>
@@ -30669,7 +30673,7 @@
       </c>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="25"/>
@@ -30685,7 +30689,7 @@
       </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="25"/>
@@ -30701,7 +30705,7 @@
       </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="25"/>
@@ -30717,7 +30721,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="25"/>
@@ -30733,7 +30737,7 @@
       </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="25"/>
@@ -30749,7 +30753,7 @@
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="25"/>
@@ -30765,7 +30769,7 @@
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="25"/>
@@ -30781,7 +30785,7 @@
       </c>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="25"/>
@@ -30797,7 +30801,7 @@
       </c>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="25"/>
@@ -30813,7 +30817,7 @@
       </c>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="25"/>
@@ -30829,7 +30833,7 @@
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="25"/>
@@ -30845,7 +30849,7 @@
       </c>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="25"/>
@@ -30861,7 +30865,7 @@
       </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="25"/>
@@ -30877,7 +30881,7 @@
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="25"/>
@@ -30893,7 +30897,7 @@
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="25"/>
@@ -30909,7 +30913,7 @@
       </c>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="25"/>
@@ -30925,7 +30929,7 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="25"/>
@@ -30941,7 +30945,7 @@
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="25"/>
@@ -30957,7 +30961,7 @@
       </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="25"/>
@@ -30973,7 +30977,7 @@
       </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="25"/>
@@ -30989,7 +30993,7 @@
       </c>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="25"/>
@@ -31005,7 +31009,7 @@
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="25"/>
@@ -31021,7 +31025,7 @@
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="25"/>
@@ -31037,7 +31041,7 @@
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="25"/>
@@ -31053,7 +31057,7 @@
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="25"/>
@@ -31069,7 +31073,7 @@
       </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="25"/>
@@ -31085,7 +31089,7 @@
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="25"/>
@@ -31101,7 +31105,7 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="25"/>
@@ -31117,7 +31121,7 @@
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="25"/>
@@ -31133,7 +31137,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="25"/>
@@ -31149,7 +31153,7 @@
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="25"/>
@@ -31165,7 +31169,7 @@
       </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="25"/>
@@ -31181,7 +31185,7 @@
       </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="25"/>
@@ -31197,7 +31201,7 @@
       </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="25"/>
@@ -31213,7 +31217,7 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="25"/>
@@ -31229,7 +31233,7 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="25"/>
@@ -31245,7 +31249,7 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="25"/>
@@ -31261,7 +31265,7 @@
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="25"/>
@@ -31277,7 +31281,7 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="25"/>
@@ -31293,7 +31297,7 @@
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="25"/>
@@ -31309,7 +31313,7 @@
       </c>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="25"/>
@@ -31325,7 +31329,7 @@
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="25"/>
@@ -31341,7 +31345,7 @@
       </c>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="25"/>
@@ -31357,7 +31361,7 @@
       </c>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="25"/>
@@ -31373,7 +31377,7 @@
       </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="25"/>
@@ -31389,7 +31393,7 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="25"/>
@@ -31405,7 +31409,7 @@
       </c>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="25"/>
@@ -31421,7 +31425,7 @@
       </c>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="25"/>
@@ -31437,7 +31441,7 @@
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="25"/>
@@ -31453,7 +31457,7 @@
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="25"/>
@@ -31469,7 +31473,7 @@
       </c>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="25"/>
@@ -31485,7 +31489,7 @@
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="25"/>
@@ -31501,7 +31505,7 @@
       </c>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="25"/>
@@ -31517,7 +31521,7 @@
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="25"/>
@@ -31533,7 +31537,7 @@
       </c>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="25"/>
@@ -31549,7 +31553,7 @@
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="12"/>
@@ -31565,7 +31569,7 @@
       </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="12"/>
@@ -31581,7 +31585,7 @@
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="12"/>
@@ -31597,7 +31601,7 @@
       </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="12"/>
@@ -31613,7 +31617,7 @@
       </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="12"/>
@@ -31629,7 +31633,7 @@
       </c>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="12"/>
@@ -31645,7 +31649,7 @@
       </c>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="12"/>
@@ -31661,7 +31665,7 @@
       </c>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="12"/>
@@ -31677,7 +31681,7 @@
       </c>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="12"/>
@@ -31693,7 +31697,7 @@
       </c>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="12"/>
@@ -31709,7 +31713,7 @@
       </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="12"/>
@@ -31725,7 +31729,7 @@
       </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="12"/>
@@ -31741,7 +31745,7 @@
       </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="12"/>
@@ -31757,7 +31761,7 @@
       </c>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="12"/>
@@ -31773,7 +31777,7 @@
       </c>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="12"/>
@@ -31789,7 +31793,7 @@
       </c>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="12"/>
@@ -31805,7 +31809,7 @@
       </c>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="12"/>
@@ -31821,7 +31825,7 @@
       </c>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="12"/>
@@ -31837,7 +31841,7 @@
       </c>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="12"/>
@@ -31853,7 +31857,7 @@
       </c>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="12"/>
@@ -31869,7 +31873,7 @@
       </c>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="12"/>
@@ -31885,7 +31889,7 @@
       </c>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="12"/>
@@ -31901,7 +31905,7 @@
       </c>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="12"/>
@@ -31917,7 +31921,7 @@
       </c>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="12"/>
@@ -31933,7 +31937,7 @@
       </c>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="12"/>
@@ -31949,7 +31953,7 @@
       </c>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="12"/>
@@ -31965,7 +31969,7 @@
       </c>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="12"/>
@@ -31981,7 +31985,7 @@
       </c>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="12"/>
@@ -31997,7 +32001,7 @@
       </c>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="12"/>
@@ -32013,7 +32017,7 @@
       </c>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="12"/>
@@ -32029,7 +32033,7 @@
       </c>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="12"/>
@@ -32045,7 +32049,7 @@
       </c>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="12"/>
@@ -32061,7 +32065,7 @@
       </c>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="12"/>
@@ -32077,7 +32081,7 @@
       </c>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="12"/>
@@ -32093,7 +32097,7 @@
       </c>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="12"/>
@@ -32109,7 +32113,7 @@
       </c>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="12"/>
@@ -32125,7 +32129,7 @@
       </c>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="12"/>
@@ -32141,7 +32145,7 @@
       </c>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="12"/>
@@ -32157,7 +32161,7 @@
       </c>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="12"/>
@@ -32173,7 +32177,7 @@
       </c>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="12"/>
@@ -32189,7 +32193,7 @@
       </c>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="12"/>
@@ -32205,7 +32209,7 @@
       </c>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="12"/>
@@ -32221,7 +32225,7 @@
       </c>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="12"/>
@@ -32237,7 +32241,7 @@
       </c>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="12"/>
@@ -32253,7 +32257,7 @@
       </c>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="12"/>
@@ -32269,7 +32273,7 @@
       </c>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="12"/>
@@ -32285,7 +32289,7 @@
       </c>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="12"/>
@@ -32301,7 +32305,7 @@
       </c>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="12"/>
@@ -32317,7 +32321,7 @@
       </c>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="12"/>
@@ -32333,7 +32337,7 @@
       </c>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="12"/>
@@ -32349,7 +32353,7 @@
       </c>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="12"/>
@@ -32365,7 +32369,7 @@
       </c>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="12"/>
@@ -32381,7 +32385,7 @@
       </c>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="12"/>
@@ -32397,7 +32401,7 @@
       </c>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="12"/>
@@ -32413,7 +32417,7 @@
       </c>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="12"/>
@@ -32429,7 +32433,7 @@
       </c>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="12"/>
@@ -32445,7 +32449,7 @@
       </c>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="12"/>
@@ -32461,7 +32465,7 @@
       </c>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="12"/>
@@ -32477,7 +32481,7 @@
       </c>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="12"/>
@@ -32493,7 +32497,7 @@
       </c>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="12"/>
@@ -32509,7 +32513,7 @@
       </c>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="12"/>
@@ -32525,7 +32529,7 @@
       </c>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="12"/>
@@ -32541,7 +32545,7 @@
       </c>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="12"/>
@@ -32557,7 +32561,7 @@
       </c>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="12"/>
@@ -32573,7 +32577,7 @@
       </c>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="12"/>
@@ -32589,7 +32593,7 @@
       </c>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="12"/>
@@ -32605,7 +32609,7 @@
       </c>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="12"/>
@@ -32621,7 +32625,7 @@
       </c>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="12"/>
@@ -32637,7 +32641,7 @@
       </c>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="12"/>
@@ -32653,7 +32657,7 @@
       </c>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="12"/>
@@ -32669,7 +32673,7 @@
       </c>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="12"/>
@@ -32685,7 +32689,7 @@
       </c>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="12"/>
@@ -32701,7 +32705,7 @@
       </c>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="12"/>
@@ -32717,7 +32721,7 @@
       </c>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="12"/>
@@ -32733,7 +32737,7 @@
       </c>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="12"/>
@@ -32749,7 +32753,7 @@
       </c>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="12"/>
@@ -32765,7 +32769,7 @@
       </c>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="12"/>
@@ -32781,7 +32785,7 @@
       </c>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="12"/>
@@ -32797,7 +32801,7 @@
       </c>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="12"/>
@@ -32813,7 +32817,7 @@
       </c>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="12"/>
@@ -32829,7 +32833,7 @@
       </c>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="12"/>
@@ -32842,7 +32846,7 @@
       </c>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="12"/>
@@ -32855,7 +32859,7 @@
       </c>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="12"/>
@@ -32868,7 +32872,7 @@
       </c>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="12"/>
